--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ncam1-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ncam1-Ptprz1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H2">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I2">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J2">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N2">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O2">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P2">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q2">
-        <v>0.01953306103666667</v>
+        <v>0.008883617085555556</v>
       </c>
       <c r="R2">
-        <v>0.17579754933</v>
+        <v>0.07995255377</v>
       </c>
       <c r="S2">
-        <v>3.431482566775361E-05</v>
+        <v>1.086283608694364E-05</v>
       </c>
       <c r="T2">
-        <v>3.431482566775362E-05</v>
+        <v>1.086283608694364E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H3">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I3">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J3">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.070426</v>
       </c>
       <c r="O3">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P3">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q3">
-        <v>0.007061239414666667</v>
+        <v>0.009185154547777777</v>
       </c>
       <c r="R3">
-        <v>0.063551154732</v>
+        <v>0.08266639093</v>
       </c>
       <c r="S3">
-        <v>1.240487597195912E-05</v>
+        <v>1.123155436854528E-05</v>
       </c>
       <c r="T3">
-        <v>1.240487597195912E-05</v>
+        <v>1.123155436854528E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H4">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I4">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J4">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N4">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O4">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P4">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q4">
-        <v>2.157355829711334</v>
+        <v>4.008543944577222</v>
       </c>
       <c r="R4">
-        <v>19.416202467402</v>
+        <v>36.076895501195</v>
       </c>
       <c r="S4">
-        <v>0.003789948183794214</v>
+        <v>0.004901624574527657</v>
       </c>
       <c r="T4">
-        <v>0.003789948183794214</v>
+        <v>0.004901624574527657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>18.805976</v>
       </c>
       <c r="I5">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J5">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N5">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O5">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P5">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q5">
-        <v>0.4070762460488889</v>
+        <v>0.1423278054737778</v>
       </c>
       <c r="R5">
-        <v>3.66368621444</v>
+        <v>1.280950249264</v>
       </c>
       <c r="S5">
-        <v>0.0007151337105039313</v>
+        <v>0.0001740376252810272</v>
       </c>
       <c r="T5">
-        <v>0.0007151337105039313</v>
+        <v>0.0001740376252810272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>18.805976</v>
       </c>
       <c r="I6">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J6">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>0.070426</v>
       </c>
       <c r="O6">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P6">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q6">
         <v>0.1471588517528889</v>
@@ -821,10 +821,10 @@
         <v>1.324429665776</v>
       </c>
       <c r="S6">
-        <v>0.0002585222220873642</v>
+        <v>0.0001799450009989374</v>
       </c>
       <c r="T6">
-        <v>0.0002585222220873642</v>
+        <v>0.0001799450009989374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>18.805976</v>
       </c>
       <c r="I7">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J7">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N7">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O7">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P7">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q7">
-        <v>44.96009667414845</v>
+        <v>64.22240595044711</v>
       </c>
       <c r="R7">
-        <v>404.640870067336</v>
+        <v>578.0016535540241</v>
       </c>
       <c r="S7">
-        <v>0.07898392763339426</v>
+        <v>0.07853079013087977</v>
       </c>
       <c r="T7">
-        <v>0.07898392763339426</v>
+        <v>0.07853079013087977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.78493233333334</v>
+        <v>72.68848166666666</v>
       </c>
       <c r="H8">
-        <v>215.354797</v>
+        <v>218.065445</v>
       </c>
       <c r="I8">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="J8">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N8">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O8">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P8">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q8">
-        <v>4.661593864172779</v>
+        <v>1.650367746747778</v>
       </c>
       <c r="R8">
-        <v>41.954344777555</v>
+        <v>14.85330972073</v>
       </c>
       <c r="S8">
-        <v>0.008189283824111595</v>
+        <v>0.002018060227432515</v>
       </c>
       <c r="T8">
-        <v>0.008189283824111595</v>
+        <v>0.002018060227432515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.78493233333334</v>
+        <v>72.68848166666666</v>
       </c>
       <c r="H9">
-        <v>215.354797</v>
+        <v>218.065445</v>
       </c>
       <c r="I9">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="J9">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>0.070426</v>
       </c>
       <c r="O9">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P9">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q9">
-        <v>1.685175214835778</v>
+        <v>1.706386336618889</v>
       </c>
       <c r="R9">
-        <v>15.166576933522</v>
+        <v>15.35747702957</v>
       </c>
       <c r="S9">
-        <v>0.00296044197108479</v>
+        <v>0.002086559438252963</v>
       </c>
       <c r="T9">
-        <v>0.00296044197108479</v>
+        <v>0.002086559438252963</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.78493233333334</v>
+        <v>72.68848166666666</v>
       </c>
       <c r="H10">
-        <v>215.354797</v>
+        <v>218.065445</v>
       </c>
       <c r="I10">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="J10">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N10">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O10">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P10">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q10">
-        <v>514.856154892552</v>
+        <v>744.693470445506</v>
       </c>
       <c r="R10">
-        <v>4633.705394032968</v>
+        <v>6702.241234009555</v>
       </c>
       <c r="S10">
-        <v>0.9044767313194653</v>
+        <v>0.9106069100636894</v>
       </c>
       <c r="T10">
-        <v>0.9044767313194653</v>
+        <v>0.9106069100636894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.04541633333333334</v>
+        <v>0.117608</v>
       </c>
       <c r="H11">
-        <v>0.136249</v>
+        <v>0.352824</v>
       </c>
       <c r="I11">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="J11">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1113,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N11">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O11">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P11">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q11">
-        <v>0.002949260992777778</v>
+        <v>0.002670250437333333</v>
       </c>
       <c r="R11">
-        <v>0.026543348935</v>
+        <v>0.024032253936</v>
       </c>
       <c r="S11">
-        <v>5.181132472063675E-06</v>
+        <v>3.265166939602237E-06</v>
       </c>
       <c r="T11">
-        <v>5.181132472063675E-06</v>
+        <v>3.265166939602237E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.04541633333333334</v>
+        <v>0.117608</v>
       </c>
       <c r="H12">
-        <v>0.136249</v>
+        <v>0.352824</v>
       </c>
       <c r="I12">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="J12">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>0.070426</v>
       </c>
       <c r="O12">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P12">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q12">
-        <v>0.001066163563777778</v>
+        <v>0.002760887002666667</v>
       </c>
       <c r="R12">
-        <v>0.009595472074000001</v>
+        <v>0.024847983024</v>
       </c>
       <c r="S12">
-        <v>1.872989428316897E-06</v>
+        <v>3.375996812526458E-06</v>
       </c>
       <c r="T12">
-        <v>1.872989428316897E-06</v>
+        <v>3.375996812526458E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.04541633333333334</v>
+        <v>0.117608</v>
       </c>
       <c r="H13">
-        <v>0.136249</v>
+        <v>0.352824</v>
       </c>
       <c r="I13">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="J13">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N13">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O13">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P13">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q13">
-        <v>0.325735192459889</v>
+        <v>1.204893920797333</v>
       </c>
       <c r="R13">
-        <v>2.931616732139001</v>
+        <v>10.844045287176</v>
       </c>
       <c r="S13">
-        <v>0.0005722373120183891</v>
+        <v>0.001473337384730126</v>
       </c>
       <c r="T13">
-        <v>0.0005722373120183891</v>
+        <v>0.001473337384730126</v>
       </c>
     </row>
   </sheetData>
